--- a/beta/Datasets/Dataset2.xlsx
+++ b/beta/Datasets/Dataset2.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\R-private\beta\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD3DAA-FBB2-4913-8082-14DD753AF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE346706-2EB7-4F5A-AF5D-882A4B72CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data2!$A$1:$E$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Percentual</t>
   </si>
@@ -94,12 +98,27 @@
   <si>
     <t>Sample</t>
   </si>
+  <si>
+    <t>Sobs</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Ishan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +145,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +202,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +239,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J37"/>
+    <sheetView topLeftCell="G1" zoomScale="126" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,6 +2374,465 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5164D7C-25E4-4861-8467-E7C944AE8A30}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1617</v>
+      </c>
+      <c r="D2" s="11">
+        <v>5.08</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1711</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.14</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1653</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.19</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1617</v>
+      </c>
+      <c r="D5" s="17">
+        <v>5.08</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1711</v>
+      </c>
+      <c r="D6" s="17">
+        <v>5.14</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1653</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.19</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1687</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1245</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1410</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11">
+        <v>883</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.41</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1447</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1114</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.13</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>72</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1571</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5.12</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>72</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1025</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3.36</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>72</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1438</v>
+      </c>
+      <c r="D16" s="15">
+        <v>4.97</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11">
+        <v>991</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3.21</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>72</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="18">
+        <f>AVERAGE(C14,C16)</f>
+        <v>1504.5</v>
+      </c>
+      <c r="D18" s="19">
+        <f>AVERAGE(D14,D16)</f>
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="E18" s="19">
+        <f>AVERAGE(E14,E16)</f>
+        <v>0.6895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1373</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.18</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>120</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1548</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4.83</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1587</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>120</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1276</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>120</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1165</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4.22</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>120</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1308</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>120</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1427</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5.13</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E25" xr:uid="{F5164D7C-25E4-4861-8467-E7C944AE8A30}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/beta/Datasets/Dataset2.xlsx
+++ b/beta/Datasets/Dataset2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\R-private\beta\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE346706-2EB7-4F5A-AF5D-882A4B72CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28505C-39DB-45D9-9CBF-E36261D6C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -270,6 +269,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2379,11 +2379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5164D7C-25E4-4861-8467-E7C944AE8A30}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,6 +2392,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2463,54 +2463,54 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>1617</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>5.08</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1711</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>5.14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>1653</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>5.19</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>24</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>24</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>24</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>72</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>72</v>
       </c>
@@ -2685,26 +2685,26 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>72</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f>AVERAGE(C14,C16)</f>
         <v>1504.5</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f>AVERAGE(D14,D16)</f>
         <v>5.0449999999999999</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>AVERAGE(E14,E16)</f>
         <v>0.6895</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>72</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>120</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>120</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>120</v>
       </c>
@@ -2824,13 +2824,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{F5164D7C-25E4-4861-8467-E7C944AE8A30}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E25" xr:uid="{F5164D7C-25E4-4861-8467-E7C944AE8A30}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
